--- a/assets/info/plantilla-universidad.xlsx
+++ b/assets/info/plantilla-universidad.xlsx
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">REPORTES NOTICIAS</t>
   </si>
   <si>
     <t xml:space="preserve">UNIVERSIDAD:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">FECHA REGISTRO</t>
@@ -312,9 +315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1011600</xdr:colOff>
+      <xdr:colOff>1011240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -328,7 +331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66600" y="581400"/>
-          <a:ext cx="3585240" cy="1122480"/>
+          <a:ext cx="3584880" cy="1122120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -351,7 +354,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="43.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,38 +409,41 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +472,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
